--- a/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization.xlsx
+++ b/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:28:27+00:00</t>
+    <t>2026-01-09T14:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization.xlsx
+++ b/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T14:11:44+00:00</t>
+    <t>2026-01-09T15:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -666,8 +666,7 @@
   </si>
   <si>
     <t>territoireSante (EG) : Territoire(s) de santé où est située l'entité géographique.  
-RG_EXP_030 : L’attribut territoire santé DOIT être une division territoriale de type « Territoire de Santé ».  
-(code 4 - Territoire de Santé du JDV-J223-TypeDivisionTerritoriale-ROR)</t>
+RG_EXP_030 : L’attribut territoire santé DOIT être une division territoriale de type « Territoire de Santé » (code 4 - Territoire de Santé du JDV-J223-TypeDivisionTerritoriale-ROR).</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR qui correspond au périmètre géographique dans lequel habitent les personnes pouvant être prises en charge pour la prestation décrite. 
